--- a/assets/examples/xlsx/RS0003ExampleFile-discrete.a205.xlsx
+++ b/assets/examples/xlsx/RS0003ExampleFile-discrete.a205.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CENTRIFIGUL_FORWARD_CURVED</t>
+          <t>CENTRIFUGAL_FORWARD_CURVED</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -945,7 +945,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">            fan_operation_type</t>
+          <t xml:space="preserve">            performance_map_type</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -960,32 +960,52 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            speed_control_type</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VARIABLE</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>"RS0001,RS0002,RS0003"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
-      <formula1>"CENTRIFIGUL_FORWARD_CURVED,CENTRIFIGUL_BACKWARD_CURVED,CENTRIFIGUL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
+      <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C29" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+      <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/assets/examples/xlsx/RS0003ExampleFile-discrete.a205.xlsx
+++ b/assets/examples/xlsx/RS0003ExampleFile-discrete.a205.xlsx
@@ -88,90 +88,115 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <t>Name of the assembly/unit manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <t>Model number of the assembly / unit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>Assembly includes a motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <t>Fan assembly is enclosed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <t>Motor and impeller are directly coupled</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
+    <comment authorId="0" ref="B27" shapeId="0">
       <text>
         <t>Nominal air flow rate for fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B28" shapeId="0">
       <text>
         <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment authorId="0" ref="B29" shapeId="0">
       <text>
         <t>Fraction of motor heat into the air stream</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
+        <t>Maximum power draw of the fan motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
+        <t>Maximum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33" shapeId="0">
       <text>
         <t>Assembly power draw when fan is not operating</t>
       </text>
@@ -524,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,12 +610,12 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>schema_version</t>
+          <t>standard_version</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>PPR2</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -602,12 +627,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0003</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -619,12 +644,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RS_ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+          <t>RS0003</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -636,12 +661,12 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2019-09-13T00:00Z</t>
+          <t>Discrete Fan</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -653,71 +678,87 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>data_version</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A205DV-1</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>data_timestamp</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Discrete Fan</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t>2019-09-13T00:00Z</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FanSelect</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FanSelect</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Example File - not for use in simulation</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>This is a JSON version of the sample RS0003 file. Speeds 1-4 are Heating, 1st stage, settings (low,mlo,norm,hi).  Speeds 5-8 are Heating, 2nd stage, settings (low,mlo,norm,hi), Speeds 9-11 are Cooling, settings (low,norm,hi).</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0003</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -725,61 +766,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0003.description</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0003</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0003.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0003.description.product_information</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                manufacturer</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>XYZFurnace Co</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                model_number</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>F060</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                has_motor</t>
-        </is>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
+          <t xml:space="preserve">                manufacturer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>XYZFurnace Co</t>
+        </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -790,11 +819,13 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                enclosed</t>
-        </is>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
+          <t xml:space="preserve">                model_number</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F060</t>
+        </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
@@ -805,95 +836,85 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                impeller_type</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CENTRIFUGAL_FORWARD_CURVED</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
+          <t xml:space="preserve">                has_motor</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                direct_drive_impeller</t>
+          <t xml:space="preserve">                enclosed</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="n"/>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
+          <t xml:space="preserve">                impeller_type</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CENTRIFUGAL_FORWARD_CURVED</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                direct_drive_impeller</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
           <t xml:space="preserve">                number_of_impellers</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="E24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>$assembly_components</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0003.performance</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>m3/s</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            wet_coil_pressure_drop</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Pa</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -905,15 +926,15 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">            motor_heat_fraction</t>
+          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.366</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -925,15 +946,15 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">            standby_power</t>
+          <t xml:space="preserve">            wet_coil_pressure_drop</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>24.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -945,12 +966,15 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">            performance_map_type</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>DISCRETE</t>
+          <t xml:space="preserve">            motor_heat_fraction</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -962,49 +986,149 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
+          <t xml:space="preserve">            maximum_power</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            maximum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            minimum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            standby_power</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            performance_map_type</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DISCRETE</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
           <t xml:space="preserve">            speed_control_type</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>VARIABLE</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C29" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C34" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C35" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
